--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E8" s="3">
         <v>205600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>146500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>199400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>208900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>144100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>127100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>128800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>99300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E9" s="3">
         <v>95500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>72500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>67700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>88700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>95600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>66300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>70600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>86600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>62700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>66100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E10" s="3">
         <v>110100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>85300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>110700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>113300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>77800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>67500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>104100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,26 +1015,29 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1050,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1039,8 +1062,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E17" s="3">
         <v>183000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>149000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>141600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>182300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>184800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>131200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>119000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>135900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>165500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>102900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>22600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,28 +1211,29 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>13700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1220,54 +1254,60 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E21" s="3">
         <v>26600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1284,19 +1324,19 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1308,98 +1348,107 @@
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>22400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17500</v>
+        <v>3500</v>
       </c>
       <c r="E26" s="3">
         <v>17500</v>
       </c>
       <c r="F26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>17800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1588,11 +1649,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>7400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1600,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-45000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,28 +1773,31 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -1748,54 +1818,60 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>17800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>17800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E41" s="3">
         <v>116000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>150700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>189900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>175600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>177000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>214800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>155500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>162400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>233600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>256300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E43" s="3">
         <v>136300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>85700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>84000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>126100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>83100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>132900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>81500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>66500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>66800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>171400</v>
+      </c>
+      <c r="E44" s="3">
         <v>201200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>201000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>178000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>165300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>183500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>171400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>159000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>151700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>169900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>177000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>160400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>153200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E45" s="3">
         <v>30700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>464600</v>
+      </c>
+      <c r="E46" s="3">
         <v>484200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>461700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>447100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>468100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>483900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>468700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>452200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>481600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>484700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>452700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>493000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>504800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,87 +2380,93 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>117400</v>
+        <v>118800</v>
       </c>
       <c r="E48" s="3">
-        <v>119400</v>
+        <v>117700</v>
       </c>
       <c r="F48" s="3">
-        <v>113400</v>
+        <v>119700</v>
       </c>
       <c r="G48" s="3">
+        <v>113800</v>
+      </c>
+      <c r="H48" s="3">
         <v>26100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>178700</v>
+      </c>
+      <c r="E49" s="3">
         <v>178800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>175900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>182300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>184200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>179200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>78900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>79300</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86600</v>
+        <v>85300</v>
       </c>
       <c r="E52" s="3">
-        <v>83700</v>
+        <v>86300</v>
       </c>
       <c r="F52" s="3">
-        <v>85900</v>
+        <v>83300</v>
       </c>
       <c r="G52" s="3">
+        <v>85500</v>
+      </c>
+      <c r="H52" s="3">
         <v>81300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>68800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>847300</v>
+      </c>
+      <c r="E54" s="3">
         <v>867100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>840600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>828700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>759700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>763900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>627200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>612100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>645400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>659600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>634100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>595000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>607800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E57" s="3">
         <v>33800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,12 +2811,12 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -2690,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>25000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>5000</v>
       </c>
       <c r="M58" s="3">
         <v>5000</v>
@@ -2705,119 +2839,128 @@
         <v>5000</v>
       </c>
       <c r="P58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E59" s="3">
         <v>103600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>89900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E60" s="3">
         <v>137400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>126900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>112000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>112700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>137100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>86100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>66900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E61" s="3">
         <v>50900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>49300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>49600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2825,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>25000</v>
@@ -2837,54 +2980,60 @@
         <v>25000</v>
       </c>
       <c r="P61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>155500</v>
+      </c>
+      <c r="E62" s="3">
         <v>154800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>159400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>174100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>96200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>73300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>73200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>320800</v>
+      </c>
+      <c r="E66" s="3">
         <v>346400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>340300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>339000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>263000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>282900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>163900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>151200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>175000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>172100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>130500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>133800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>455500</v>
+      </c>
+      <c r="E72" s="3">
         <v>456600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>443400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>430500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>431200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>418300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>396000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>391500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>388700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>425600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>411300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>408800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>415900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>526500</v>
+      </c>
+      <c r="E76" s="3">
         <v>520700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>489600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>496700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>481000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>463400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>460900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>470300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>487400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>478200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>464500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>474000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>17800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>59300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>64200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>69100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1600</v>
       </c>
       <c r="M91" s="3">
         <v>-1600</v>
       </c>
       <c r="N91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-96100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-80000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2100</v>
       </c>
       <c r="P94" s="3">
         <v>-2100</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4175,7 +4409,7 @@
         <v>-4600</v>
       </c>
       <c r="K96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="L96" s="3">
         <v>-3000</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,127 +4579,136 @@
         <v>-4600</v>
       </c>
       <c r="E100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>43800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>47200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-37900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-71200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>69700</v>
+      </c>
+      <c r="F8" s="3">
         <v>191000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>205600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>157800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>146500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>199400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>208900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>144100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>127100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>149200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>190700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>128800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>99300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>130800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F9" s="3">
         <v>90400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>95500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>72500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>67700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>88700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>95600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>66300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>59600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>70600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>86600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>62700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>48700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>66100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F10" s="3">
         <v>100600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>110100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>85300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>78800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>110700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>113300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>77800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>67500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>78600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>104100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>66100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>50600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>64700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>155900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1018,34 +1057,40 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>6300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1053,11 +1098,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1065,11 +1110,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>251800</v>
+      </c>
+      <c r="F17" s="3">
         <v>184400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>183000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>149000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>141600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>182300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>184800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>131200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>119000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>135900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>165500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>120500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>102900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>123300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-182100</v>
+      </c>
+      <c r="F18" s="3">
         <v>6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>22600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>17100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>24100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>25200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,34 +1277,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>13700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1257,65 +1324,77 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-178300</v>
+      </c>
+      <c r="F21" s="3">
         <v>12800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>26600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>26500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>8900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>21400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>27700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>17100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>29100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>10500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1327,22 +1406,22 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
@@ -1351,104 +1430,122 @@
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-182400</v>
+      </c>
+      <c r="F23" s="3">
         <v>8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>22400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>22200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>24100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>13100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>24900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>17500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>17500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>9900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>26900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>17400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>17800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>17500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>10000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>26900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>17400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,44 +1750,50 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>7400</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-45000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,34 +1909,40 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-13700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -1821,57 +1960,69 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>17800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>17500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>26900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-33900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>17400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>17800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>17500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>26900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-33900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>17400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>170200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>187800</v>
+      </c>
+      <c r="F41" s="3">
         <v>185900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>116000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>134900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>150700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>189900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>142700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>175600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>177000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>214800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>155500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>162400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>233600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>256300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2327,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F43" s="3">
         <v>78400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>136300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>93700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>85700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>84000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>126100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>83800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>80000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>83100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>132900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>81500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>66500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>66800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>177800</v>
+      </c>
+      <c r="F44" s="3">
         <v>171400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>201200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>201000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>178000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>165300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>183500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>171400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>159000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>151700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>169900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>177000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>160400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>153200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F45" s="3">
         <v>28900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>30700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>32100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>32600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>28900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>31600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>37900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>36200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>32000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>26400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>31800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>32600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>28500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>433600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>442500</v>
+      </c>
+      <c r="F46" s="3">
         <v>464600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>484200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>461700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>447100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>468100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>483900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>468700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>452200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>481600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>484700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>452700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>493000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>504800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2592,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>113400</v>
+      </c>
+      <c r="F48" s="3">
         <v>118800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>117700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>119700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>113800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>26100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>25500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>23600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>24700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>31400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>32000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>34200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F49" s="3">
         <v>178700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>178800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>175900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>182300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>184200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>179200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>75700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>80200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>83400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>78900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>79300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>123800</v>
+      </c>
+      <c r="F52" s="3">
         <v>85300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>86300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>83300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>85500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>81300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>75300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>58300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>56200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>55700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>71400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>70600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>70100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>68800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>679700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>697900</v>
+      </c>
+      <c r="F54" s="3">
         <v>847300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>867100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>840600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>828700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>759700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>763900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>627200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>612100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>645400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>659600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>634100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>595000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>607800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,63 +3009,71 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F57" s="3">
         <v>35500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>33800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>50300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>37500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>38700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>47200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>34600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>24400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>28000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>35200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>23000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>27200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2814,26 +3081,26 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>25000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5000</v>
       </c>
       <c r="O58" s="3">
         <v>5000</v>
@@ -2842,139 +3109,157 @@
         <v>5000</v>
       </c>
       <c r="Q58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F59" s="3">
         <v>73700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>103600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>76500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>74400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>74000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>89900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>56100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>50900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>67900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>45900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>38900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>39200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>93600</v>
+      </c>
+      <c r="F60" s="3">
         <v>109300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>137400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>126900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>112000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>112700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>137100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>90600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>78000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>86100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>66900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>71400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F61" s="3">
         <v>52100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>50900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>50500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>49300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>50300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>49600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>25000</v>
@@ -2983,57 +3268,69 @@
         <v>25000</v>
       </c>
       <c r="Q61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="R61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="S61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>148300</v>
+      </c>
+      <c r="F62" s="3">
         <v>155500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>154800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>159400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>174100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>96400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>96200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>73300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>73200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>74700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>46300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>44800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>38700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>37400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>328100</v>
+      </c>
+      <c r="F66" s="3">
         <v>320800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>346400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>340300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>339000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>263000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>282900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>163900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>151200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>175000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>172100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>155900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>130500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>133800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>298900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>305500</v>
+      </c>
+      <c r="F72" s="3">
         <v>455500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>456600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>443400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>430500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>431200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>418300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>396000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>391500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>388700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>425600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>411300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>408800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>415900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>373700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>369800</v>
+      </c>
+      <c r="F76" s="3">
         <v>526500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>520700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>500300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>489600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>496700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>481000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>463400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>460900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>470300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>487400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>478200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>464500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>474000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>17800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>17500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>26900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-33900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>17400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F83" s="3">
         <v>4500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3100</v>
       </c>
       <c r="K83" s="3">
         <v>3400</v>
       </c>
       <c r="L83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F89" s="3">
         <v>76600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-25600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>59300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>22700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>64200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>69100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-96100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-80000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,16 +4847,18 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-4600</v>
@@ -4412,10 +4879,10 @@
         <v>-4600</v>
       </c>
       <c r="L96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="M96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="N96" s="3">
         <v>-3000</v>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-8700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>43800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-27700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>69900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-18900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-15800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-39200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>47200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-32900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-37900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>59300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-71200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-22700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>56500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E8" s="3">
         <v>88500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>69700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>191000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>205600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>146500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>199400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>208900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>144100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>127100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>149200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>128800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>99300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>130800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E9" s="3">
         <v>43200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>95500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>72500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>67700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>88700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>70600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>86600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>62700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>66100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E10" s="3">
         <v>45300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>110100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>85300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>110700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>113300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>77800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>104100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>66100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>64700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>155900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1063,26 +1083,29 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,8 +1115,8 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1104,8 +1127,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>146800</v>
       </c>
       <c r="E17" s="3">
+        <v>97500</v>
+      </c>
+      <c r="F17" s="3">
         <v>251800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>184400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>183000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>149000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>141600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>182300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>184800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>131200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>119000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>135900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>165500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>120500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>102900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>123300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>23100</v>
       </c>
       <c r="E18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-182100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,37 +1312,38 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>13700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1330,63 +1364,69 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>26400</v>
       </c>
       <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-178300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,10 +1434,10 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1412,19 +1452,19 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
@@ -1436,116 +1476,125 @@
         <v>400</v>
       </c>
       <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-182400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-32300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>14900</v>
       </c>
       <c r="E26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-150100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>17500</v>
       </c>
       <c r="H26" s="3">
         <v>17500</v>
       </c>
       <c r="I26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>14800</v>
       </c>
       <c r="E27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-150000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>7400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-45000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,37 +1982,40 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-13700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -1966,63 +2036,69 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>14800</v>
       </c>
       <c r="E33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-150000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>14800</v>
       </c>
       <c r="E35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-150000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E41" s="3">
         <v>170200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>187800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>185900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>134900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>150700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>189900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>175600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>214800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>155500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>162400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>233600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>256300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E43" s="3">
         <v>60100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>78400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>136300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>93700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>126100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>83800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>83100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>132900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>81500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>66800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E44" s="3">
         <v>173400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>177800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>171400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>201200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>201000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>178000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>165300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>183500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>171400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>159000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>151700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>169900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>177000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>160400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>153200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E45" s="3">
         <v>29900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E46" s="3">
         <v>433600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>442500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>464600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>484200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>461700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>447100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>468100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>483900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>468700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>452200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>481600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>484700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>452700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>493000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>504800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,105 +2703,111 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E48" s="3">
         <v>108100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>113400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>118800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>117700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>119700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>113800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E49" s="3">
         <v>18100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>178700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>178800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>175900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>182300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>184200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>179200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>83400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>78900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>79300</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E52" s="3">
         <v>120000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>123800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>86300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>83300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>85500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>81300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>56200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>55700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>70600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>70100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>68800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>701800</v>
+      </c>
+      <c r="E54" s="3">
         <v>679700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>697900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>847300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>867100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>840600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>828700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>759700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>763900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>627200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>612100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>645400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>659600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>634100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>595000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>607800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E57" s="3">
         <v>29900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,8 +3209,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3087,12 +3221,12 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3100,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>25000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5000</v>
       </c>
       <c r="P58" s="3">
         <v>5000</v>
@@ -3115,146 +3249,155 @@
         <v>5000</v>
       </c>
       <c r="S58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E59" s="3">
         <v>79500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>103600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>89900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>67900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>45900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E60" s="3">
         <v>109400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>137400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>126900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>112000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>137100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>86100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>66900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>71400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E61" s="3">
         <v>48300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>82500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>49300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3262,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>25000</v>
@@ -3274,63 +3417,69 @@
         <v>25000</v>
       </c>
       <c r="S61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="T61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E62" s="3">
         <v>144200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>148300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>155500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>154800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>159400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>174100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>303000</v>
+        <v>312400</v>
       </c>
       <c r="E66" s="3">
+        <v>306000</v>
+      </c>
+      <c r="F66" s="3">
         <v>328100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>320800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>340300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>339000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>263000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>282900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>163900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>151200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>175000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>172100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>155900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>130500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>133800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>313700</v>
+      </c>
+      <c r="E72" s="3">
         <v>298900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>305500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>455500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>456600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>443400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>430500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>431200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>418300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>396000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>391500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>388700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>425600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>411300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>408800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>415900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>389300</v>
+      </c>
+      <c r="E76" s="3">
         <v>373700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>369800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>526500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>520700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>489600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>496700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>481000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>463400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>460900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>470300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>487400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>478200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>464500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>474000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>14800</v>
       </c>
       <c r="E81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-150000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,52 +4432,55 @@
         <v>3300</v>
       </c>
       <c r="E83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E89" s="3">
         <v>14200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>76600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>59300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>64200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>69100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1600</v>
       </c>
       <c r="P91" s="3">
         <v>-1600</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-2100</v>
       </c>
       <c r="S94" s="3">
         <v>-2100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-4600</v>
@@ -4885,7 +5119,7 @@
         <v>-4600</v>
       </c>
       <c r="N96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="O96" s="3">
         <v>-3000</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>30500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-4600</v>
       </c>
       <c r="G100" s="3">
         <v>-4600</v>
       </c>
       <c r="H100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>43800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>69900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>47200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>59300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-22700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>56500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>178300</v>
+      </c>
+      <c r="E8" s="3">
         <v>169900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>88500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>191000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>205600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>157800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>146500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>199400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>208900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>144100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>127100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>149200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>190700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>128800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>99300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>130800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E9" s="3">
         <v>77400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>95500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>72500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>67700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>88700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>66300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>70600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>86600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>62700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>66100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E10" s="3">
         <v>92500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>110100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>85300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>110700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>113300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>77800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>78600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>104100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>66100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>64700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>155900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1086,26 +1106,29 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1118,8 +1141,8 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1130,8 +1153,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1165,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E17" s="3">
         <v>146800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>97500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>251800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>184400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>183000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>149000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>141600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>182300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>184800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>131200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>119000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>135900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>165500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>120500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>102900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>123300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E18" s="3">
         <v>23100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-182100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,40 +1346,41 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>13700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1367,80 +1401,86 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E21" s="3">
         <v>26400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-178300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1455,19 +1495,19 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
@@ -1479,122 +1519,131 @@
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E23" s="3">
         <v>22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-182400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>13100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-32300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E26" s="3">
         <v>14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-150100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>17500</v>
       </c>
       <c r="I26" s="3">
         <v>17500</v>
       </c>
       <c r="J26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E27" s="3">
         <v>14800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-150000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1892,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1843,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>7400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-45000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,40 +2052,43 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-13700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2039,66 +2109,72 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E33" s="3">
         <v>14800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-150000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-33900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E35" s="3">
         <v>14800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-150000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-33900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E41" s="3">
         <v>163200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>170200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>187800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>185900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>150700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>175600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>177000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>214800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>155500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>162400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>233600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>256300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E43" s="3">
         <v>103500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>78400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>136300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>126100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>83800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>83100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>132900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>81500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>66500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E44" s="3">
         <v>176800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>173400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>177800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>171400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>201200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>201000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>178000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>165300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>183500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>171400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>159000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>151700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>169900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>177000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>160400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>153200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E45" s="3">
         <v>28000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>501700</v>
+      </c>
+      <c r="E46" s="3">
         <v>471600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>433600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>442500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>464600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>484200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>461700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>447100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>468100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>483900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>468700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>452200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>481600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>484700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>452700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>493000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>504800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E48" s="3">
         <v>101900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>108100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>113400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>118800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>119700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>113800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,46 +2882,46 @@
         <v>17100</v>
       </c>
       <c r="E49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F49" s="3">
         <v>18100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>178700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>178800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>175900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>182300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>184200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>179200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>78900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>79300</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E52" s="3">
         <v>111100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>120000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>123800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>85300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>86300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>83300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>85500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>56200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>55700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>70600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>70100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>68800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>719300</v>
+      </c>
+      <c r="E54" s="3">
         <v>701800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>679700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>697900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>847300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>867100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>840600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>828700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>759700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>763900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>627200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>612100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>645400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>659600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>634100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>595000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>607800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,69 +3272,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E57" s="3">
         <v>35600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3212,8 +3346,8 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3224,12 +3358,12 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3237,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>25000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>5000</v>
       </c>
       <c r="Q58" s="3">
         <v>5000</v>
@@ -3252,155 +3386,164 @@
         <v>5000</v>
       </c>
       <c r="T58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E59" s="3">
         <v>97800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>79500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>73700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>103600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>89900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>45900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>39200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E60" s="3">
         <v>133400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>109300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>137400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>112700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>137100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>86100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>66900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>71400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E61" s="3">
         <v>37300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>82500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>49300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>49600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3408,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>25000</v>
@@ -3420,66 +3563,72 @@
         <v>25000</v>
       </c>
       <c r="T61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="U61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E62" s="3">
         <v>137700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>144200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>148300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>155500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>154800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>159400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>174100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>74700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>44800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E66" s="3">
         <v>312400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>306000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>328100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>320800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>346400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>340300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>339000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>263000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>282900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>163900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>151200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>175000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>172100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>155900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>130500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>133800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>341600</v>
+      </c>
+      <c r="E72" s="3">
         <v>313700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>298900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>305500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>455500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>456600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>443400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>430500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>431200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>418300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>396000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>391500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>388700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>425600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>411300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>408800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>415900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>425300</v>
+      </c>
+      <c r="E76" s="3">
         <v>389300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>373700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>369800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>526500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>520700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>489600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>496700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>481000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>463400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>460900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>470300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>487400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>478200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>464500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>474000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E81" s="3">
         <v>14800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-150000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-33900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
         <v>3300</v>
       </c>
       <c r="F83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E89" s="3">
         <v>4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>76600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>64200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>69100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q91" s="3">
         <v>-1600</v>
       </c>
       <c r="R91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,55 +5244,58 @@
         <v>-600</v>
       </c>
       <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-96100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-80000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-2100</v>
       </c>
       <c r="T94" s="3">
         <v>-2100</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5098,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-4600</v>
@@ -5122,7 +5356,7 @@
         <v>-4600</v>
       </c>
       <c r="O96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="P96" s="3">
         <v>-3000</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>30500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-4600</v>
       </c>
       <c r="H100" s="3">
         <v>-4600</v>
       </c>
       <c r="I100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>43800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>69900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>59300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-71200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-22700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>56500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E8" s="3">
         <v>178300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>169900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>88500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>191000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>205600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>157800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>146500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>199400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>208900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>127100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>149200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>190700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>128800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>99300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>130800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E9" s="3">
         <v>77500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>77400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>95500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>72500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>88700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>95600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>66300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>70600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>86600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>62700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>66100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>92500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>110100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>85300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>110700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>113300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>77800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>67500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>78600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>104100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>66100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>64700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,11 +1102,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>155900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1109,26 +1128,29 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1144,8 +1166,8 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1156,8 +1178,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1190,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E17" s="3">
         <v>152400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>97500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>251800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>184400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>183000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>149000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>182300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>184800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>119000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>135900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>165500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>120500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>102900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>123300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E18" s="3">
         <v>25900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-182100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,43 +1379,44 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>13700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1404,86 +1437,92 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E21" s="3">
         <v>29800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-178300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1498,19 +1537,19 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
@@ -1522,128 +1561,137 @@
         <v>400</v>
       </c>
       <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E23" s="3">
         <v>25800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-182400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-32300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E26" s="3">
         <v>30600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-150100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>17500</v>
       </c>
       <c r="J26" s="3">
         <v>17500</v>
       </c>
       <c r="K26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>30300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-150000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1895,11 +1955,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1907,24 +1967,24 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>7400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,43 +2121,46 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2112,69 +2181,75 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>30300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-150000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>30300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-150000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E41" s="3">
         <v>223800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>163200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>170200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>187800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>185900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>150700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>189900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>175600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>177000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>214800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>155500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>162400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>233600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>256300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E43" s="3">
         <v>101800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>103500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>78400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>136300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>93700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>84000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>126100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>83800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>83100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>132900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>81500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>66800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E44" s="3">
         <v>152600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>176800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>173400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>177800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>171400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>201200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>201000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>178000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>165300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>183500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>171400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>159000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>151700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>169900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>177000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>160400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>153200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E45" s="3">
         <v>23500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>483500</v>
+      </c>
+      <c r="E46" s="3">
         <v>501700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>471600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>433600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>442500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>464600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>484200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>461700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>447100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>468100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>483900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>468700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>452200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>481600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>484700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>452700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>493000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>504800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E48" s="3">
         <v>98600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>108100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>113400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>118800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>117700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>119700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="E49" s="3">
         <v>17100</v>
       </c>
       <c r="F49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G49" s="3">
         <v>18100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>178700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>178800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>175900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>182300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>184200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>179200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>75700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>78900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>79300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E52" s="3">
         <v>101900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>111100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>120000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>123800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>85300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>83300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>56200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>55700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>70600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>70100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>68800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>694700</v>
+      </c>
+      <c r="E54" s="3">
         <v>719300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>701800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>679700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>697900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>847300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>867100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>840600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>828700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>759700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>763900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>627200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>612100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>645400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>659600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>634100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>595000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>607800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,84 +3402,88 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E57" s="3">
         <v>28200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3361,11 +3494,11 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3374,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>25000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>5000</v>
       </c>
       <c r="R58" s="3">
         <v>5000</v>
@@ -3389,164 +3522,173 @@
         <v>5000</v>
       </c>
       <c r="U58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E59" s="3">
         <v>99400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>97800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>79500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>73700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>103600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>89900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>45900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>38900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E60" s="3">
         <v>127700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>133400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>109300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>137400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>112000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>112700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>137100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>86100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>66900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>71400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>82500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>52100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3554,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>25000</v>
@@ -3566,69 +3708,75 @@
         <v>25000</v>
       </c>
       <c r="U61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="V61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E62" s="3">
         <v>140400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>137700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>144200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>148300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>155500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>154800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>159400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>174100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>96200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>73200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>74700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>267900</v>
+      </c>
+      <c r="E66" s="3">
         <v>294000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>312400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>306000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>328100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>320800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>346400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>340300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>339000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>263000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>282900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>163900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>151200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>175000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>172100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>155900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>130500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>133800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>346400</v>
+      </c>
+      <c r="E72" s="3">
         <v>341600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>313700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>298900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>305500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>455500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>456600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>443400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>430500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>431200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>418300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>396000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>391500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>388700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>425600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>411300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>408800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>415900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>426800</v>
+      </c>
+      <c r="E76" s="3">
         <v>425300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>389300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>373700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>369800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>526500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>520700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>489600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>496700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>481000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>463400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>460900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>470300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>487400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>478200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>464500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>474000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>30300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-150000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3300</v>
       </c>
       <c r="F83" s="3">
         <v>3300</v>
       </c>
       <c r="G83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E89" s="3">
         <v>75100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>76600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>64200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>69100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1600</v>
       </c>
       <c r="R91" s="3">
         <v>-1600</v>
       </c>
       <c r="S91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>-600</v>
       </c>
       <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-80000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-2100</v>
       </c>
       <c r="U94" s="3">
         <v>-2100</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5335,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-4600</v>
@@ -5359,7 +5592,7 @@
         <v>-4600</v>
       </c>
       <c r="P96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="Q96" s="3">
         <v>-3000</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-37200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>30500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-4600</v>
       </c>
       <c r="I100" s="3">
         <v>-4600</v>
       </c>
       <c r="J100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>43800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E102" s="3">
         <v>60600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-32900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-71200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-22700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>56500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>173900</v>
+      </c>
+      <c r="F8" s="3">
         <v>134800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>178300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>169900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>88500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>69700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>191000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>205600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>157800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>146500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>199400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>208900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>144100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>127100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>149200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>190700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>128800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>99300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>130800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F9" s="3">
         <v>60600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>77500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>77400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>43200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>37800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>90400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>95500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>72500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>67700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>88700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>95600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>66300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>59600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>70600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>86600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>62700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>48700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>66100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>98500</v>
+      </c>
+      <c r="F10" s="3">
         <v>74200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>100800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>92500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>45300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>31900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>110100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>85300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>78800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>110700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>113300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>77800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>67500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>78600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>104100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>66100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>50600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>64700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,14 +1145,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>155900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1131,26 +1171,32 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>6300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,11 +1215,11 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1181,11 +1227,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1193,11 +1239,11 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>149200</v>
+      </c>
+      <c r="F17" s="3">
         <v>121500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>152400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>146800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>97500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>251800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>184400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>183000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>149000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>141600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>182300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>184800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>131200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>119000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>135900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>165500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>120500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>102900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>123300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F18" s="3">
         <v>13300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>25900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>23100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-182100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>22600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>17100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>24100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>12900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>25200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>7500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,40 +1457,40 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>13700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1440,95 +1508,107 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F21" s="3">
         <v>16500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>29800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>26400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-178300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>12800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>26600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>21400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>27700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>16000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>17100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>29100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>11600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>10500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1540,22 +1620,22 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
@@ -1564,134 +1644,152 @@
         <v>400</v>
       </c>
       <c r="V22" s="3">
+        <v>400</v>
+      </c>
+      <c r="W22" s="3">
+        <v>400</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F23" s="3">
         <v>13100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>25800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>22500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-182400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>22400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>22200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>16900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>24100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>13100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>24900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>8100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-32300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F26" s="3">
         <v>9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>30600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-150100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>17500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>17500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>26900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>11100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>5500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F27" s="3">
         <v>9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>30300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>14800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-150000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>17800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>17500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>26900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>8100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>11100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>17400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>5500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1958,39 +2080,39 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>7400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-45000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,40 +2273,40 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-13700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2184,72 +2324,84 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F33" s="3">
         <v>9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>30300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>14800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-150000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>17800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>17500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>17400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>26900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>8100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-33900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>17400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>5500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F35" s="3">
         <v>9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>30300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>14800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-150000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>17800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>17500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>17400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>26900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>8100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-33900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>17400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>5500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>199700</v>
+      </c>
+      <c r="F41" s="3">
         <v>187000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>223800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>163200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>170200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>187800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>185900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>116000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>134900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>150700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>189900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>142700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>175600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>177000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>214800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>155500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>162400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>233600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>256300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2791,286 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>98300</v>
+      </c>
+      <c r="F43" s="3">
         <v>102900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>101800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>103500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>60100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>49800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>78400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>136300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>93700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>85700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>84000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>126100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>83800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>80000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>83100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>132900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>81500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>66500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>66800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>170700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>183300</v>
+      </c>
+      <c r="F44" s="3">
         <v>170000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>152600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>176800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>173400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>177800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>171400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>201200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>201000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>178000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>165300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>183500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>171400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>159000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>151700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>169900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>177000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>160400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>153200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F45" s="3">
         <v>23600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>23500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>28000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>29900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>27000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>28900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>30700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>32100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>32600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>31600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>37900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>36200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>32000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>26400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>31800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>32600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>28500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>536200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>504500</v>
+      </c>
+      <c r="F46" s="3">
         <v>483500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>501700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>471600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>433600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>442500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>464600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>484200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>461700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>447100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>468100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>483900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>468700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>452200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>481600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>484700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>452700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>493000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>504800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3131,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>90900</v>
+      </c>
+      <c r="F48" s="3">
         <v>93400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>98600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>101900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>108100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>113400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>118800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>117700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>119700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>113800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>26100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>25500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>24500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>23600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>24700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>24600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>31400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>32000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>34200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F49" s="3">
         <v>16300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>18100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>18300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>178700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>178800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>175900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>182300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>184200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>179200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>75700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>80200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>83400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>78900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>79300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F52" s="3">
         <v>101500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>101900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>111100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>120000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>123800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>85300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>86300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>83300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>85500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>81300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>75300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>58300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>56200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>55700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>71400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>70600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>70100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>68800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>741000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>710900</v>
+      </c>
+      <c r="F54" s="3">
         <v>694700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>719300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>701800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>679700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>697900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>847300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>867100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>840600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>828700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>759700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>763900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>627200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>612100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>645400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>659600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>634100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>595000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>607800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,93 +3663,101 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F57" s="3">
         <v>34600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>28200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>35600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>29900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>19200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>35500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>50300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>37500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>38700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>47200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>34600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>29300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>24400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>28000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>35200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>23000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>27200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3497,26 +3765,26 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>25000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>5000</v>
       </c>
       <c r="T58" s="3">
         <v>5000</v>
@@ -3525,184 +3793,202 @@
         <v>5000</v>
       </c>
       <c r="V58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>89400</v>
+      </c>
+      <c r="F59" s="3">
         <v>80000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>99400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>97800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>79500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>74400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>73700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>103600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>76500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>74400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>74000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>89900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>56100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>48600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>50900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>67900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>45900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>38900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>39200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>135100</v>
+      </c>
+      <c r="F60" s="3">
         <v>114600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>127700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>133400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>109400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>93600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>109300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>137400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>126900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>112000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>112700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>137100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>90600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>78000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>86100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>66900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>71400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>10000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>21300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>37300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>48300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>82500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>52100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>50900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>50500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>49300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>50300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>49600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>25000</v>
@@ -3711,72 +3997,84 @@
         <v>25000</v>
       </c>
       <c r="V61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="W61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="X61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>136400</v>
+      </c>
+      <c r="F62" s="3">
         <v>138400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>140400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>137700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>144200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>148300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>155500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>154800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>159400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>174100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>96400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>96200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>73300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>73200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>74700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>46300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>44800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>38700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>37400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>276300</v>
+      </c>
+      <c r="F66" s="3">
         <v>267900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>294000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>312400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>306000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>328100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>320800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>346400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>340300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>339000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>263000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>282900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>163900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>151200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>175000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>172100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>155900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>130500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>133800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>361200</v>
+      </c>
+      <c r="F72" s="3">
         <v>346400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>341600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>313700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>298900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>305500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>455500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>456600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>443400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>430500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>431200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>418300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>396000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>391500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>388700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>425600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>411300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>408800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>415900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>454300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>434600</v>
+      </c>
+      <c r="F76" s="3">
         <v>426800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>425300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>389300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>373700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>369800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>526500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>520700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>489600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>496700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>481000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>463400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>460900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>470300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>487400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>478200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>464500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>474000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F81" s="3">
         <v>9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>30300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>14800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-150000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>17800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>17500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>17400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>26900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>8100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-33900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>17400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>5500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3100</v>
       </c>
       <c r="P83" s="3">
         <v>3400</v>
       </c>
       <c r="Q83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S83" s="3">
         <v>3600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>3800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>3100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>3000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>75100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-25600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>76600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-25600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>59300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>22700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>64200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>6500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-16600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>69100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-96100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-80000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,20 +6016,22 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5571,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-4600</v>
@@ -5595,10 +6063,10 @@
         <v>-4600</v>
       </c>
       <c r="Q96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="R96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="S96" s="3">
         <v>-3000</v>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-19800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-16800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-37200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>30500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>43800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-3800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-4700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-10900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>5800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-36900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>60600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-17600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>69900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-15800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>47200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-32900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-37900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>59300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-71200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-22700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>56500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E8" s="3">
         <v>217700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>173900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>178300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>169900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>88500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>191000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>205600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>146500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>199400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>208900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>144100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>127100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>149200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>190700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>128800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>99300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>130800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E9" s="3">
         <v>92200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>75400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>77500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>72500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>67700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>88700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>95600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>66300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>70600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>86600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>62700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>48700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>66100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E10" s="3">
         <v>125500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>98500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>92500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>110100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>110700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>113300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>77800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>67500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>78600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>104100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>66100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>64700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,11 +1171,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>155900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1177,26 +1197,29 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6300</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,8 +1244,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1233,8 +1256,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1245,8 +1268,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E17" s="3">
         <v>176300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>149200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>152400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>146800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>251800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>184400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>183000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>149000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>141600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>182300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>184800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>131200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>135900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>165500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>120500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>102900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>123300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E18" s="3">
         <v>41400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-182100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,43 +1491,43 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>13700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1514,78 +1548,84 @@
         <v>100</v>
       </c>
       <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E21" s="3">
         <v>44600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-178300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,25 +1633,25 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1626,19 +1666,19 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>400</v>
       </c>
       <c r="U22" s="3">
         <v>400</v>
@@ -1650,146 +1690,155 @@
         <v>400</v>
       </c>
       <c r="X22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E23" s="3">
         <v>41400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-182400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>9600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-32300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,76 +1905,82 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E26" s="3">
         <v>31800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-150100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>17500</v>
       </c>
       <c r="M26" s="3">
         <v>17500</v>
       </c>
       <c r="N26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +1988,70 @@
         <v>31400</v>
       </c>
       <c r="E27" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F27" s="3">
         <v>19400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-150000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,11 +2147,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2098,24 +2159,24 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>7400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-45000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,43 +2343,43 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-13700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2330,10 +2400,13 @@
         <v>-100</v>
       </c>
       <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2414,70 @@
         <v>31400</v>
       </c>
       <c r="E33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F33" s="3">
         <v>19400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-150000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-33900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2556,146 @@
         <v>31400</v>
       </c>
       <c r="E35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F35" s="3">
         <v>19400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-150000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-33900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E41" s="3">
         <v>201800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>199700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>187000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>223800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>163200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>187800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>185900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>150700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>189900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>142700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>175600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>177000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>214800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>155500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>162400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>233600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>256300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E43" s="3">
         <v>143500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>102900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>101800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>103500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>136300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>93700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>85700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>126100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>83800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>83100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>132900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>81500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>66800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E44" s="3">
         <v>170700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>183300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>170000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>152600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>176800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>173400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>177800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>171400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>201200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>201000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>178000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>165300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>183500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>171400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>159000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>151700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>169900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>177000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>160400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>153200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E45" s="3">
         <v>20200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>31800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>28500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>553900</v>
+      </c>
+      <c r="E46" s="3">
         <v>536200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>504500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>483500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>501700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>471600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>433600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>442500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>464600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>484200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>461700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>447100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>468100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>483900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>468700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>452200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>481600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>484700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>452700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>493000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>504800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3242,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E48" s="3">
         <v>88000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>90900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>93400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>98600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>108100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>113400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>118800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>117700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E49" s="3">
         <v>14500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>17100</v>
       </c>
       <c r="H49" s="3">
         <v>17100</v>
       </c>
       <c r="I49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J49" s="3">
         <v>18100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>178700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>178800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>175900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>182300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>184200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>179200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>75700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>83400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>78900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>79300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E52" s="3">
         <v>102300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>111100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>120000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>123800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>83300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>81300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>58300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>56200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>55700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>71400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>70600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>70100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>68800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>761200</v>
+      </c>
+      <c r="E54" s="3">
         <v>741000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>710900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>694700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>719300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>701800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>679700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>697900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>847300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>867100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>840600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>828700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>759700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>763900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>627200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>612100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>645400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>659600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>634100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>595000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>607800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E57" s="3">
         <v>29500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>50300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>23000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>27200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3747,20 +3881,20 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3771,11 +3905,11 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3784,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>25000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>5000</v>
       </c>
       <c r="U58" s="3">
         <v>5000</v>
@@ -3799,146 +3933,155 @@
         <v>5000</v>
       </c>
       <c r="X58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E59" s="3">
         <v>115600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>89400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>97800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>79500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>103600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>89900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>56100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>50900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>45900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>38900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>39200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E60" s="3">
         <v>145000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>114600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>127700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>133400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>109400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>109300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>137400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>126900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>112000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>112700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>137100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>90600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>86100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>66900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>71400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,41 +4092,41 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>10000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>82500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>52100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>50500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3991,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>25000</v>
@@ -4003,78 +4146,84 @@
         <v>25000</v>
       </c>
       <c r="X61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>136400</v>
+        <v>132600</v>
       </c>
       <c r="E62" s="3">
         <v>136400</v>
       </c>
       <c r="F62" s="3">
+        <v>136400</v>
+      </c>
+      <c r="G62" s="3">
         <v>138400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>140400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>137700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>144200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>148300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>155500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>154800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>159400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>174100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>96400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>73300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>74700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>46300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>44800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>37400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E66" s="3">
         <v>286700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>276300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>267900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>294000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>312400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>306000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>328100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>320800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>346400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>340300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>339000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>263000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>282900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>163900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>151200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>175000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>172100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>155900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>130500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>133800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>413600</v>
+      </c>
+      <c r="E72" s="3">
         <v>388000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>361200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>346400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>341600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>313700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>298900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>305500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>455500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>456600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>443400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>430500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>431200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>418300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>396000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>391500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>388700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>425600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>411300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>408800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>415900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>472800</v>
+      </c>
+      <c r="E76" s="3">
         <v>454300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>434600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>426800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>425300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>389300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>373700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>369800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>526500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>520700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>489600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>496700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>481000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>463400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>460900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>470300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>487400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>478200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>464500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>474000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5328,70 @@
         <v>31400</v>
       </c>
       <c r="E81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F81" s="3">
         <v>19400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-150000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-33900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,64 +5429,67 @@
         <v>3100</v>
       </c>
       <c r="F83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3300</v>
       </c>
       <c r="I83" s="3">
         <v>3300</v>
       </c>
       <c r="J83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E89" s="3">
         <v>16000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>75100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>76600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>64200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-16600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>69100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1600</v>
       </c>
       <c r="U91" s="3">
         <v>-1600</v>
       </c>
       <c r="V91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>2000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,67 +6163,70 @@
         <v>-3000</v>
       </c>
       <c r="E94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-600</v>
       </c>
       <c r="H94" s="3">
         <v>-600</v>
       </c>
       <c r="I94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-80000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-2100</v>
       </c>
       <c r="X94" s="3">
         <v>-2100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,23 +6251,24 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6045,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-4600</v>
@@ -6069,7 +6303,7 @@
         <v>-4600</v>
       </c>
       <c r="S96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="T96" s="3">
         <v>-3000</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-24000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-37200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-4600</v>
       </c>
       <c r="L100" s="3">
         <v>-4600</v>
       </c>
       <c r="M100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>43800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>47200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>59300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-71200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-22700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>56500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,346 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163400</v>
+      </c>
+      <c r="F8" s="3">
         <v>206000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>217700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>173900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>134800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>178300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>169900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>88500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>69700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>191000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>205600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>157800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>146500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>199400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>208900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>144100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>127100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>149200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>190700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>128800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>99300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>130800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>66700</v>
+      </c>
+      <c r="F9" s="3">
         <v>85100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>92200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>75400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>60600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>77500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>77400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>43200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>37800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>90400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>95500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>72500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>67700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>88700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>95600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>66300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>59600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>70600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>86600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>62700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>48700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>66100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>96700</v>
+      </c>
+      <c r="F10" s="3">
         <v>120900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>125500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>98500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>74200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>92500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>45300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>110100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>85300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>78800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>110700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>113300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>77800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>67500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>78600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>104100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>66100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>50600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>64700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,16 +1180,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1174,14 +1213,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>155900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1200,26 +1239,32 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>6300</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,11 +1292,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1259,11 +1304,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1271,11 +1316,11 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>138100</v>
+      </c>
+      <c r="F17" s="3">
         <v>167800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>176300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>149200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>121500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>152400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>146800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>97500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>251800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>184400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>183000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>149000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>141600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>182300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>184800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>131200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>119000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>135900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>165500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>120500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>102900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>123300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F18" s="3">
         <v>38200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>41400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>24700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>13300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>25900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>23100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-182100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>22600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>17100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>24100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>12900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>8100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>13300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>25200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>8300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-3600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>7500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,58 +1547,60 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>13700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1551,81 +1618,93 @@
         <v>100</v>
       </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F21" s="3">
         <v>41300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>44600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>28000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>16500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>29800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>26400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-178300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>12800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>26600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>26500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>21400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>27700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>16000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>11600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>17100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>29100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>11600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>10500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,28 +1715,28 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1669,22 +1748,22 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>400</v>
       </c>
       <c r="W22" s="3">
         <v>400</v>
@@ -1693,152 +1772,170 @@
         <v>400</v>
       </c>
       <c r="Y22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F23" s="3">
         <v>38200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>41400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>13100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>25800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>22500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-182400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>22400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>22200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>16900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>24100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>12800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>8000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>13100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>24900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>8100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>7100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-32300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>7500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F26" s="3">
         <v>31600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>31800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>19400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>30600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-150100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>17500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>17500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>9900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>26900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>9100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>8100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>11100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>17400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>5500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>5200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F27" s="3">
         <v>31400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>19400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>30300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>14800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-150000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>17800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>17500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>10000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>26900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>8100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>11100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>17400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>5500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>5200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,39 +2271,39 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>7400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-45000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,58 +2467,64 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-13700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2403,81 +2542,93 @@
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F33" s="3">
         <v>31400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>19400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>30300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>14800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-150000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>17800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>17500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>17400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>26900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>8100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-33900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>17400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>5500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>5200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F35" s="3">
         <v>31400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>19400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>30300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>14800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-150000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>17800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>17500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>17400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>26900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>8100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-33900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>17400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>5500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>5200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>225300</v>
+      </c>
+      <c r="F41" s="3">
         <v>277100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>201800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>199700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>187000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>223800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>163200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>170200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>187800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>185900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>116000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>134900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>150700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>189900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>142700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>175600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>177000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>214800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>155500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>162400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>233600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>256300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +3069,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F43" s="3">
         <v>99500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>143500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>98300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>102900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>101800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>103500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>60100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>49800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>78400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>136300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>93700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>85700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>84000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>126100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>83800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>80000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>83100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>132900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>81500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>66500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>66800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>180000</v>
+      </c>
+      <c r="F44" s="3">
         <v>160300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>170700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>183300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>170000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>152600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>176800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>173400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>177800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>171400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>201200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>201000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>178000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>165300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>183500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>171400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>159000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>151700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>169900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>177000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>160400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>153200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>20200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>23600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>23500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>28000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>29900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>27000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>28900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>30700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>32100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>32600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>28900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>31600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>37900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>36200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>32000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>26400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>31800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>32600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>28500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>550100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>525000</v>
+      </c>
+      <c r="F46" s="3">
         <v>553900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>536200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>504500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>483500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>501700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>471600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>433600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>442500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>464600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>484200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>461700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>447100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>468100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>483900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>468700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>452200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>481600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>484700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>452700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>493000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>504800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3454,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>98200</v>
+      </c>
+      <c r="F48" s="3">
         <v>88100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>88000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>90900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>93400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>98600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>101900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>108100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>113400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>118800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>117700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>119700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>113800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>26100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>25500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>24500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>23600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>24700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>24600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>31400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>32000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>34200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F49" s="3">
         <v>13500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>14500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>16300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>18100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>18300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>178700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>178800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>175900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>182300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>184200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>179200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>75700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>80200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>83400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>78900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>79300</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>104900</v>
+      </c>
+      <c r="F52" s="3">
         <v>105700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>102300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>101500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>101900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>111100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>120000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>123800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>85300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>86300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>83300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>85500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>81300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>75300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>58300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>56200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>55700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>71400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>70600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>70100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>68800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>766100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>740000</v>
+      </c>
+      <c r="F54" s="3">
         <v>761200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>741000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>710900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>694700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>719300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>701800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>679700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>697900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>847300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>867100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>840600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>828700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>759700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>763900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>627200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>612100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>645400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>659600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>634100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>595000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>607800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,84 +4055,92 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F57" s="3">
         <v>46000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>29500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>45700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>34600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>28200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>35600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>29900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>19200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>35500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>33800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>50300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>37500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>38700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>47200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>34600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>29300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>24400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>28000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>35200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>23000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>27200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3884,23 +4151,23 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3908,26 +4175,26 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>25000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>5000</v>
       </c>
       <c r="W58" s="3">
         <v>5000</v>
@@ -3936,152 +4203,170 @@
         <v>5000</v>
       </c>
       <c r="Y58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>94200</v>
+      </c>
+      <c r="F59" s="3">
         <v>105500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>115600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>89400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>80000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>99400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>97800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>79500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>74400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>73700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>103600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>76500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>74400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>74000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>89900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>56100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>48600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>50900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>67900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>45900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>38900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>39200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>138400</v>
+      </c>
+      <c r="F60" s="3">
         <v>151500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>145000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>135100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>114600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>127700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>133400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>109400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>93600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>109300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>137400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>126900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>112000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>112700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>137100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>90600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>78000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>100300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>100900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>86100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>66900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>71400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4095,52 +4380,52 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>10000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>21300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>37300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>48300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>82500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>52100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>50900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>50500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>49300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>50300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>49600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>25000</v>
@@ -4149,81 +4434,93 @@
         <v>25000</v>
       </c>
       <c r="Y61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>137100</v>
+      </c>
+      <c r="F62" s="3">
         <v>132600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>136400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>136400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>138400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>140400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>137700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>144200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>148300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>155500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>154800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>159400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>174100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>96400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>96200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>73300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>73200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>74700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>46300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>44800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>38700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>37400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>280300</v>
+      </c>
+      <c r="F66" s="3">
         <v>288400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>286700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>276300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>267900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>294000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>312400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>306000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>328100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>320800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>346400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>340300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>339000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>263000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>282900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>163900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>151200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>175000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>172100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>155900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>130500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>133800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>440300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>424200</v>
+      </c>
+      <c r="F72" s="3">
         <v>413600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>388000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>361200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>346400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>341600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>313700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>298900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>305500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>455500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>456600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>443400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>430500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>431200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>418300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>396000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>391500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>388700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>425600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>411300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>408800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>415900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>470800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>459700</v>
+      </c>
+      <c r="F76" s="3">
         <v>472800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>454300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>434600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>426800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>425300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>389300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>373700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>369800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>526500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>520700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>489600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>496700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>481000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>463400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>460900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>470300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>487400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>478200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>464500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>474000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F81" s="3">
         <v>31400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>19400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>30300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>14800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-150000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>17800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>17500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>17400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>26900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>8100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-33900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>17400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>5500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>5200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F83" s="3">
         <v>3100</v>
       </c>
       <c r="G83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3100</v>
       </c>
       <c r="S83" s="3">
         <v>3400</v>
       </c>
       <c r="T83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V83" s="3">
         <v>3600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>3800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>3100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>3000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F89" s="3">
         <v>92100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>38100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-15400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>75100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-25600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>76600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-25600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>59300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>22700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>64200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>6500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-16600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>69100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>2000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-96100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-80000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,29 +6717,31 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-4600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-4700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-7000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6282,10 +6749,10 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-4600</v>
@@ -6306,10 +6773,10 @@
         <v>-4600</v>
       </c>
       <c r="T96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="U96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="V96" s="3">
         <v>-3000</v>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-12600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-10200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-19800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-16800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-11000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-37200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>30500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>43800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-3800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-27700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-8300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-4200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-3700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>5800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>5900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="F102" s="3">
         <v>75300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>12800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-36900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>60600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-17600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>69900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-18900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-15800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-39200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>47200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-32900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-37900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>59300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-6900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-71200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-22700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>56500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -1869,7 +1869,7 @@
         <v>6000</v>
       </c>
       <c r="F24" s="3">
-        <v>6600</v>
+        <v>8100</v>
       </c>
       <c r="G24" s="3">
         <v>9600</v>
@@ -1881,7 +1881,7 @@
         <v>3300</v>
       </c>
       <c r="J24" s="3">
-        <v>-4800</v>
+        <v>5400</v>
       </c>
       <c r="K24" s="3">
         <v>7500</v>
@@ -2023,7 +2023,7 @@
         <v>19300</v>
       </c>
       <c r="F26" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="G26" s="3">
         <v>31800</v>
@@ -2035,7 +2035,7 @@
         <v>9800</v>
       </c>
       <c r="J26" s="3">
-        <v>30600</v>
+        <v>20300</v>
       </c>
       <c r="K26" s="3">
         <v>14900</v>
@@ -2100,7 +2100,7 @@
         <v>18500</v>
       </c>
       <c r="F27" s="3">
-        <v>31400</v>
+        <v>29800</v>
       </c>
       <c r="G27" s="3">
         <v>31400</v>
@@ -2112,7 +2112,7 @@
         <v>9400</v>
       </c>
       <c r="J27" s="3">
-        <v>30300</v>
+        <v>20000</v>
       </c>
       <c r="K27" s="3">
         <v>14800</v>
@@ -2253,8 +2253,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>1500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2265,8 +2265,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>10200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E8" s="3">
         <v>182800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>163400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>206000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>217700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>173900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>134800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>178300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>169900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>88500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>191000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>205600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>157800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>146500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>199400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>208900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>144100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>127100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>149200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>190700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>128800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>99300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>130800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E9" s="3">
         <v>75900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>66700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>85100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>92200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>60600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>90400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>95500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>72500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>67700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>88700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>95600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>66300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>59600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>70600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>86600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>62700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>48700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>66100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E10" s="3">
         <v>106900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>96700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>120900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>125500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>98500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>92500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>45300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>110100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>85300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>78800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>110700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>113300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>77800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>67500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>78600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>104100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>66100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>50600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>64700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1217,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1219,11 +1239,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>155900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1245,26 +1265,29 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6300</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1310,8 +1333,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E17" s="3">
         <v>152100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>138100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>167800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>176300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>149200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>152400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>146800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>97500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>251800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>184400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>183000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>149000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>141600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>182300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>184800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>131200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>119000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>135900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>165500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>120500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>102900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>123300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E18" s="3">
         <v>30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-182100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,16 +1582,17 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1567,43 +1601,43 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>13700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
@@ -1624,87 +1658,93 @@
         <v>100</v>
       </c>
       <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E21" s="3">
         <v>33600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-178300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>17100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>29100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,25 +1761,25 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
       </c>
       <c r="M22" s="3">
+        <v>600</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1754,19 +1794,19 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
-      </c>
-      <c r="W22" s="3">
-        <v>400</v>
       </c>
       <c r="X22" s="3">
         <v>400</v>
@@ -1778,164 +1818,173 @@
         <v>400</v>
       </c>
       <c r="AA22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E23" s="3">
         <v>30800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>38200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-182400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>13100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-32300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E26" s="3">
         <v>24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-150100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>17500</v>
       </c>
       <c r="P26" s="3">
         <v>17500</v>
       </c>
       <c r="Q26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="R26" s="3">
         <v>3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E27" s="3">
         <v>24000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-150000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,35 +2314,35 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>1500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>10200</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2289,24 +2350,24 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>7400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-45000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,16 +2540,19 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2491,43 +2561,43 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
@@ -2548,87 +2618,93 @@
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E33" s="3">
         <v>24000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>31400</v>
       </c>
       <c r="G33" s="3">
         <v>31400</v>
       </c>
       <c r="H33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="I33" s="3">
         <v>19400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-150000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-33900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E35" s="3">
         <v>24000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>31400</v>
       </c>
       <c r="G35" s="3">
         <v>31400</v>
       </c>
       <c r="H35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="I35" s="3">
         <v>19400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-150000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-33900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E41" s="3">
         <v>203100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>225300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>277100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>201800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>199700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>187000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>223800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>187800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>185900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>134900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>150700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>189900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>142700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>175600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>177000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>214800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>155500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>162400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>233600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>256300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E43" s="3">
         <v>110400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>96200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>99500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>143500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>98300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>102900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>101800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>103500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>136300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>93700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>85700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>126100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>83800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>80000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>83100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>132900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>81500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>66500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>66800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3161,230 +3257,239 @@
         <v>215000</v>
       </c>
       <c r="E44" s="3">
+        <v>215000</v>
+      </c>
+      <c r="F44" s="3">
         <v>180000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>160300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>170700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>183300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>170000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>152600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>176800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>173400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>177800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>171400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>201200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>201000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>178000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>165300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>183500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>171400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>159000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>151700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>169900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>177000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>160400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>153200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E45" s="3">
         <v>21600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>37900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>26400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>31800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>32600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>28500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>563900</v>
+      </c>
+      <c r="E46" s="3">
         <v>550100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>525000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>553900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>536200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>504500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>483500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>501700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>471600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>433600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>442500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>464600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>484200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>461700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>447100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>468100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>483900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>468700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>452200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>481600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>484700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>452700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>493000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>504800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E48" s="3">
         <v>94800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>98200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>88100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>88000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>90900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>93400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>98600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>101900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>108100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>118800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>117700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>119700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>25500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>24700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E49" s="3">
         <v>10900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>17100</v>
       </c>
       <c r="K49" s="3">
         <v>17100</v>
       </c>
       <c r="L49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="M49" s="3">
         <v>18100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>178700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>178800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>175900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>182300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>184200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>179200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>75700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>80200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>83400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>78900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>79300</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E52" s="3">
         <v>110300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>104900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>105700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>111100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>83300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>85500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>75300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>58300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>56200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>55700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>71400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>70600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>70100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>68800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>775700</v>
+      </c>
+      <c r="E54" s="3">
         <v>766100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>740000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>761200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>741000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>710900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>694700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>719300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>701800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>679700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>697900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>847300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>867100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>840600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>828700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>759700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>763900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>627200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>612100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>645400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>659600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>634100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>595000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>607800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,93 +4187,97 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E57" s="3">
         <v>52000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>50300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>29300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>35200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>23000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>27200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -4157,20 +4291,20 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4181,11 +4315,11 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4194,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>25000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>5000</v>
       </c>
       <c r="X58" s="3">
         <v>5000</v>
@@ -4209,164 +4343,173 @@
         <v>5000</v>
       </c>
       <c r="AA58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AB58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E59" s="3">
         <v>107600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>115600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>89400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>80000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>103600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>89900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>56100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>50900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>67900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>45900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>38900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>39200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E60" s="3">
         <v>159600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>138400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>151500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>145000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>114600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>127700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>109400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>109300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>137400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>126900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>112000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>112700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>137100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>90600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>78000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>100300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>100900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>86100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>66900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>71400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4386,41 +4529,41 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>10000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>48300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>82500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>52100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>50300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>49600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4428,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>25000</v>
@@ -4440,87 +4583,93 @@
         <v>25000</v>
       </c>
       <c r="AA61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AB61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E62" s="3">
         <v>130700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>137100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>132600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>136400</v>
       </c>
       <c r="H62" s="3">
         <v>136400</v>
       </c>
       <c r="I62" s="3">
+        <v>136400</v>
+      </c>
+      <c r="J62" s="3">
         <v>138400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>140400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>137700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>144200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>148300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>155500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>154800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>159400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>174100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>96400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>73300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>74700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>46300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>44800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>38700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>37400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>297700</v>
+      </c>
+      <c r="E66" s="3">
         <v>295300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>280300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>286700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>276300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>267900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>294000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>312400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>306000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>328100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>320800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>346400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>340300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>339000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>263000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>282900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>163900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>151200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>175000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>172100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>155900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>130500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>133800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>461800</v>
+      </c>
+      <c r="E72" s="3">
         <v>440300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>424200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>413600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>388000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>361200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>346400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>341600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>313700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>298900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>305500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>455500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>456600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>443400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>430500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>431200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>418300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>396000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>391500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>388700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>425600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>411300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>408800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>415900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E76" s="3">
         <v>470800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>459700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>472800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>454300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>434600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>426800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>425300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>389300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>373700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>369800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>526500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>520700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>489600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>496700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>481000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>463400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>460900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>470300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>487400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>478200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>464500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>474000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E81" s="3">
         <v>24000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>31400</v>
       </c>
       <c r="G81" s="3">
         <v>31400</v>
       </c>
       <c r="H81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="I81" s="3">
         <v>19400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-150000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-33900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,19 +6012,20 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3100</v>
       </c>
       <c r="G83" s="3">
         <v>3100</v>
@@ -5835,64 +6034,67 @@
         <v>3100</v>
       </c>
       <c r="I83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3300</v>
       </c>
       <c r="L83" s="3">
         <v>3300</v>
       </c>
       <c r="M83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N83" s="3">
         <v>3900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>92100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>75100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>76600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-25600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>59300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>64200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>69100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1600</v>
       </c>
       <c r="X91" s="3">
         <v>-1600</v>
       </c>
       <c r="Y91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>2000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-3000</v>
       </c>
       <c r="G94" s="3">
         <v>-3000</v>
       </c>
       <c r="H94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-600</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
       </c>
       <c r="L94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-96100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-80000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-2100</v>
       </c>
       <c r="AA94" s="3">
         <v>-2100</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,32 +6952,33 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="E96" s="3">
         <v>-7900</v>
       </c>
       <c r="F96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-4600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6755,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-4600</v>
@@ -6779,7 +7013,7 @@
         <v>-4600</v>
       </c>
       <c r="V96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="W96" s="3">
         <v>-3000</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-4600</v>
       </c>
       <c r="O100" s="3">
         <v>-4600</v>
       </c>
       <c r="P100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>43800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-51900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>75300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>60600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>69900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>47200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-32900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-37900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>59300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-71200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-22700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>56500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E8" s="3">
         <v>211400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>182800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>163400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>206000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>217700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>173900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>178300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>169900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>88500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>191000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>205600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>157800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>146500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>199400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>208900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>144100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>127100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>149200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>190700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>128800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>99300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>130800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E9" s="3">
         <v>90400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>75900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>66700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>92200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>60600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>90400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>95500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>72500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>67700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>88700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>95600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>66300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>59600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>70600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>86600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>62700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>48700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>66100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E10" s="3">
         <v>121000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>106900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>96700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>120900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>125500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>98500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>92500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>110100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>85300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>78800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>110700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>113300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>77800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>67500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>78600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>104100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>66100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>50600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>64700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1223,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1220,8 +1240,8 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1242,11 +1262,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>155900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1268,26 +1288,29 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6300</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1324,8 +1347,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1336,8 +1359,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1348,8 +1371,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E17" s="3">
         <v>173100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>152100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>138100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>167800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>176300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>149200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>121500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>152400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>146800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>97500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>251800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>184400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>183000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>149000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>141600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>182300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>184800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>131200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>119000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>135900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>165500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>120500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>102900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>123300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E18" s="3">
         <v>38300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-182100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>25200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,19 +1616,20 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1604,43 +1638,43 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>13700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
@@ -1661,95 +1695,101 @@
         <v>100</v>
       </c>
       <c r="AB20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E21" s="3">
         <v>41300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-178300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>17100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>29100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1764,25 +1804,25 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
       <c r="N22" s="3">
+        <v>600</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1797,19 +1837,19 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
       <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>400</v>
       </c>
       <c r="Y22" s="3">
         <v>400</v>
@@ -1821,170 +1861,179 @@
         <v>400</v>
       </c>
       <c r="AB22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E23" s="3">
         <v>38600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>38200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-182400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>13100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>24900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>7100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-32300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E26" s="3">
         <v>30100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-150100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>17500</v>
       </c>
       <c r="Q26" s="3">
         <v>17500</v>
       </c>
       <c r="R26" s="3">
+        <v>17500</v>
+      </c>
+      <c r="S26" s="3">
         <v>3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E27" s="3">
         <v>29300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-150000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,35 +2378,35 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>1500</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>10200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2353,24 +2414,24 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>7400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-45000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,19 +2610,22 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -2564,43 +2634,43 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-13700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
@@ -2621,90 +2691,96 @@
         <v>-100</v>
       </c>
       <c r="AB32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E33" s="3">
         <v>29300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>31400</v>
       </c>
       <c r="H33" s="3">
         <v>31400</v>
       </c>
       <c r="I33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J33" s="3">
         <v>19400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-150000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-33900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E35" s="3">
         <v>29300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>31400</v>
       </c>
       <c r="H35" s="3">
         <v>31400</v>
       </c>
       <c r="I35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J35" s="3">
         <v>19400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-150000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-33900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>251600</v>
+      </c>
+      <c r="E41" s="3">
         <v>186700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>203100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>225300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>277100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>201800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>199700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>187000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>223800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>163200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>187800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>185900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>116000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>150700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>189900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>142700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>175600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>177000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>214800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>155500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>162400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>233600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>256300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,328 +3258,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E43" s="3">
         <v>143500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>110400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>96200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>99500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>143500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>98300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>102900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>103500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>136300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>93700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>85700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>84000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>126100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>83800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>80000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>83100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>132900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>81500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>66500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>66800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>215000</v>
+        <v>186200</v>
       </c>
       <c r="E44" s="3">
         <v>215000</v>
       </c>
       <c r="F44" s="3">
+        <v>215000</v>
+      </c>
+      <c r="G44" s="3">
         <v>180000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>160300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>170700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>183300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>170000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>152600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>176800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>173400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>177800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>171400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>201200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>201000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>178000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>165300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>183500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>171400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>159000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>151700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>169900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>177000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>160400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>153200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E45" s="3">
         <v>18700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>31600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>37900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>36200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>31800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>32600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>28500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>567200</v>
+      </c>
+      <c r="E46" s="3">
         <v>563900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>550100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>525000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>553900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>536200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>504500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>483500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>501700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>471600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>433600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>442500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>464600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>484200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>461700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>447100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>468100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>483900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>468700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>452200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>481600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>484700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>452700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>493000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>504800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,168 +3673,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E48" s="3">
         <v>93100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>94800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>98200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>88100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>88000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>90900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>93400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>101900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>108100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>118800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>117700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>119700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>25500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>24600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E49" s="3">
         <v>9800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>17100</v>
       </c>
       <c r="L49" s="3">
         <v>17100</v>
       </c>
       <c r="M49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="N49" s="3">
         <v>18100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>178700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>178800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>175900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>182300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>184200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>179200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>75700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>80200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>83400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>78900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>79300</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E52" s="3">
         <v>108900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>110300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>104900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>105700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>102300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>111100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>120000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>83300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>85500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>81300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>75300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>58300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>56200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>55700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>71400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>70600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>70100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>68800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>787700</v>
+      </c>
+      <c r="E54" s="3">
         <v>775700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>766100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>740000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>761200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>741000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>710900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>694700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>719300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>701800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>679700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>697900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>847300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>867100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>840600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>828700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>759700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>763900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>627200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>612100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>645400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>659600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>634100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>595000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>607800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E57" s="3">
         <v>40900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>50300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>29300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>28000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>35200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>23000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>27200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4279,35 +4413,35 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -4318,11 +4452,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4331,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>25000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>5000</v>
       </c>
       <c r="Y58" s="3">
         <v>5000</v>
@@ -4346,170 +4480,179 @@
         <v>5000</v>
       </c>
       <c r="AB58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AC58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E59" s="3">
         <v>124700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>107600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>105500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>115600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>89400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>99400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>97800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>76500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>74000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>89900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>56100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>50900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>67900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>45900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>38900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>39200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E60" s="3">
         <v>165600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>138400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>151500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>145000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>114600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>127700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>109400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>109300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>137400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>126900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>112000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>112700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>137100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>90600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>78000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>100300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>100900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>86100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>66900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>71400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4532,41 +4675,41 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>10000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>48300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>82500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>52100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>50500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>49300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>50300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>49600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4574,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>25000</v>
@@ -4586,90 +4729,96 @@
         <v>25000</v>
       </c>
       <c r="AB61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AC61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E62" s="3">
         <v>126500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>130700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>137100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>132600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>136400</v>
       </c>
       <c r="I62" s="3">
         <v>136400</v>
       </c>
       <c r="J62" s="3">
+        <v>136400</v>
+      </c>
+      <c r="K62" s="3">
         <v>138400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>140400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>137700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>144200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>148300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>155500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>154800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>159400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>174100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>96200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>73200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>74700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>46300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>44800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>38700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>37400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E66" s="3">
         <v>297700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>295300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>280300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>288400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>286700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>276300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>267900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>294000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>312400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>306000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>328100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>320800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>346400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>340300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>339000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>263000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>282900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>163900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>151200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>175000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>172100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>155900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>130500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>133800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>476800</v>
+      </c>
+      <c r="E72" s="3">
         <v>461800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>440300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>424200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>413600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>388000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>361200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>346400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>341600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>313700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>298900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>305500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>455500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>456600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>443400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>430500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>431200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>418300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>396000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>391500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>388700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>425600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>411300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>408800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>415900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>507600</v>
+      </c>
+      <c r="E76" s="3">
         <v>478000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>470800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>459700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>472800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>454300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>434600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>426800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>425300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>389300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>373700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>369800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>526500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>520700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>489600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>496700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>481000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>463400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>460900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>470300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>487400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>478200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>464500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>474000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E81" s="3">
         <v>29300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>31400</v>
       </c>
       <c r="H81" s="3">
         <v>31400</v>
       </c>
       <c r="I81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J81" s="3">
         <v>19400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-150000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-33900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,13 +6221,13 @@
         <v>2600</v>
       </c>
       <c r="E83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3100</v>
       </c>
       <c r="H83" s="3">
         <v>3100</v>
@@ -6037,64 +6236,67 @@
         <v>3100</v>
       </c>
       <c r="J83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3300</v>
       </c>
       <c r="M83" s="3">
         <v>3300</v>
       </c>
       <c r="N83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O83" s="3">
         <v>3900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>92100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>75100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>76600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-25600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>59300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>64200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-16600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>69100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-1600</v>
       </c>
       <c r="Y91" s="3">
         <v>-1600</v>
       </c>
       <c r="Z91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>2000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3000</v>
       </c>
       <c r="H94" s="3">
         <v>-3000</v>
       </c>
       <c r="I94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-600</v>
       </c>
       <c r="L94" s="3">
         <v>-600</v>
       </c>
       <c r="M94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-96100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-80000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-2100</v>
       </c>
       <c r="AB94" s="3">
         <v>-2100</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,26 +7196,26 @@
         <v>-7800</v>
       </c>
       <c r="E96" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="F96" s="3">
         <v>-7900</v>
       </c>
       <c r="G96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6992,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-4600</v>
@@ -7016,7 +7250,7 @@
         <v>-4600</v>
       </c>
       <c r="W96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="X96" s="3">
         <v>-3000</v>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-4600</v>
       </c>
       <c r="P100" s="3">
         <v>-4600</v>
       </c>
       <c r="Q100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="R100" s="3">
         <v>-6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>43800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-51900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>75300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>47200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-32900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-37900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>59300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-71200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-22700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>56500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-6000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>MOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,397 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>144900</v>
+      </c>
+      <c r="F8" s="3">
         <v>194300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>211400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>182800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>163400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>206000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>217700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>173900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>134800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>178300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>169900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>88500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>69700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>191000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>205600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>157800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>146500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>199400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>208900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>144100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>127100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>149200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>190700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>128800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>99300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>130800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>179800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F9" s="3">
         <v>85000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>90400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>75900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>66700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>85100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>92200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>75400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>60600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>77500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>77400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>43200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>37800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>90400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>95500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>72500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>67700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>88700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>95600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>66300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>59600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>70600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>86600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>62700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>48700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>66100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>81300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F10" s="3">
         <v>109300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>121000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>106900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>96700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>120900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>125500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>98500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>74200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>92500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>45300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>31900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>110100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>85300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>78800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>110700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>113300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>77800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>67500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>78600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>104100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>66100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>50600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>64700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>98500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,22 +1259,28 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1265,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>155900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1291,49 +1330,55 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>7000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>6300</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1350,11 +1395,11 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1362,11 +1407,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1374,11 +1419,11 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>134000</v>
+      </c>
+      <c r="F17" s="3">
         <v>168100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>173100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>152100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>138100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>167800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>176300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>149200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>121500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>152400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>146800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>97500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>251800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>184400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>183000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>149000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>141600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>182300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>184800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>131200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>119000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>135900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>165500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>120500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>102900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>123300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>148700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F18" s="3">
         <v>26200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>38300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>30700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>25300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>38200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>41400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>24700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>25900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>23100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-182100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>22600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>8800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>17100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>12900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>8100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>13300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>25200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>8300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>7500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,70 +1682,72 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>13700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
@@ -1698,104 +1765,116 @@
         <v>100</v>
       </c>
       <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F21" s="3">
         <v>30100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>41300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>33600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>28300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>41300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>44600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>28000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>16500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>29800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>26400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-178300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>12800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>26600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>26500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>8900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>21400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>27700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>16000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>11600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>17100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>29100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>11600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>10500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1807,28 +1886,28 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1840,22 +1919,22 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>400</v>
       </c>
       <c r="AA22" s="3">
         <v>400</v>
@@ -1864,176 +1943,194 @@
         <v>400</v>
       </c>
       <c r="AC22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F23" s="3">
         <v>27300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>38600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>30800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>25300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>38200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>41400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>25800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>22500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-182400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>22400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>22200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>16900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>24100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>12800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>8000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>13100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>24900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>8100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>7100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>8100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-32300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>2000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>7500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>2600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>1900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F26" s="3">
         <v>23300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>30100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>24300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>19300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>30100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>31800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>19400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-150100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>17500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>17500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>9900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>26900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>9100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>8100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>11100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>17400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>5500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>5200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F27" s="3">
         <v>22700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>29300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>24000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>18500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>29800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>19400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>20000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>14800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-150000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>17800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>17500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>10000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>26900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>9100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>8100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>11100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>17400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>5500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>5200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,62 +2502,62 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>1500</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>1500</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>10200</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>10200</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>7400</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>7400</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>-45000</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>-45000</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,70 +2746,76 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-13700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
@@ -2694,93 +2833,105 @@
         <v>-100</v>
       </c>
       <c r="AC32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F33" s="3">
         <v>22700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>29300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>24000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>18500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>19400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>30300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>14800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-150000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>17800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>17500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>17400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>26900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>9100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>8100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-33900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>17400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>5500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>5200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F35" s="3">
         <v>22700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>29300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>24000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>18500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>19400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>30300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>14800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-150000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>17800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>17500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>17400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>26900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>9100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>8100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-33900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>17400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>5500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>5200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>198300</v>
+      </c>
+      <c r="F41" s="3">
         <v>251600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>186700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>203100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>225300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>277100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>201800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>199700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>187000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>223800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>163200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>170200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>187800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>185900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>116000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>134900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>150700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>189900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>142700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>175600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>177000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>214800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>155500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>162400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>233600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>256300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>199800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,340 +3440,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>106100</v>
+      </c>
+      <c r="F43" s="3">
         <v>105200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>143500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>110400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>96200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>99500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>143500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>98300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>102900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>101800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>103500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>60100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>49800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>78400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>136300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>93700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>85700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>84000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>126100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>83800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>80000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>83100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>132900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>81500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>66500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>66800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>130100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>195200</v>
+      </c>
+      <c r="F44" s="3">
         <v>186200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>215000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>215000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>180000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>160300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>170700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>183300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>170000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>152600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>176800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>173400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>177800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>171400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>201200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>201000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>178000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>165300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>183500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>171400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>159000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>151700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>169900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>177000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>160400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>153200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>169400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F45" s="3">
         <v>24200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>18700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>21600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>23600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>17000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>20200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>23100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>23500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>29900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>27000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>28900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>30700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>32100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>32600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>28900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>31600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>37900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>36200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>32000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>26400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>31800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>32600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>28500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>534400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>525400</v>
+      </c>
+      <c r="F46" s="3">
         <v>567200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>563900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>550100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>525000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>553900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>536200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>504500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>483500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>501700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>471600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>433600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>442500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>464600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>484200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>461700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>447100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>468100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>483900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>468700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>452200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>481600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>484700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>452700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>493000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>504800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>527300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,174 +3885,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>95300</v>
+      </c>
+      <c r="F48" s="3">
         <v>99600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>93100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>94800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>98200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>88100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>88000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>90900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>93400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>98600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>101900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>108100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>113400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>118800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>117700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>119700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>113800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>26100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>25500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>24500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>23600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>24700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>24600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>31400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>32000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>34200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F49" s="3">
         <v>9600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>9800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>10900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>16300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>18100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>18300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>178700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>178800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>175900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>182300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>184200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>179200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>75700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>80200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>83400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>78900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>79300</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>115800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>111800</v>
+      </c>
+      <c r="F52" s="3">
         <v>111300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>108900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>110300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>104900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>105700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>102300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>101500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>101900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>111100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>120000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>123800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>85300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>86300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>83300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>85500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>81300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>75300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>58300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>56200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>55700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>71400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>70600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>70100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>68800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>749700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>741500</v>
+      </c>
+      <c r="F54" s="3">
         <v>787700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>775700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>766100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>740000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>761200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>741000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>710900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>694700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>719300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>701800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>679700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>697900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>847300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>867100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>840600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>828700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>759700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>763900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>627200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>612100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>645400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>659600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>634100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>595000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>607800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>624500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F57" s="3">
         <v>32100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>40900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>52000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>44100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>46000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>29500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>45700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>34600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>28200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>35600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>29900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>19200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>35500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>33800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>50300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>37500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>38700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>47200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>34600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>29300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>24400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>28000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>35200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>23000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>27200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4428,26 +4695,26 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4455,26 +4722,26 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>25000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>5000</v>
       </c>
       <c r="AA58" s="3">
         <v>5000</v>
@@ -4483,176 +4750,194 @@
         <v>5000</v>
       </c>
       <c r="AC58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AE58" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>91600</v>
+      </c>
+      <c r="F59" s="3">
         <v>110300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>124700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>107600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>94200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>105500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>115600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>89400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>80000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>99400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>97800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>79500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>74400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>73700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>103600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>76500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>74400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>74000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>89900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>56100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>48600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>50900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>67900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>45900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>38900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>39200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>116000</v>
+      </c>
+      <c r="F60" s="3">
         <v>142400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>165600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>159600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>138400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>151500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>145000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>135100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>114600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>127700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>133400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>109400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>93600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>109300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>137400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>126900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>112000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>112700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>137100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>90600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>78000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>100300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>100900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>86100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>66900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>71400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4678,52 +4963,52 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>10000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>21300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>37300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>48300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>82500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>52100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>50900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>50500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>49300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>50300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>49600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>25000</v>
@@ -4732,93 +5017,105 @@
         <v>25000</v>
       </c>
       <c r="AC61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AE61" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F62" s="3">
         <v>134700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>126500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>130700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>137100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>132600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>136400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>136400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>138400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>140400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>137700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>144200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>148300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>155500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>154800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>159400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>174100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>96400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>96200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>73300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>73200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>74700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>46300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>44800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>38700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>37400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>248900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>249500</v>
+      </c>
+      <c r="F66" s="3">
         <v>280100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>297700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>295300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>280300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>288400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>286700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>276300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>267900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>294000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>312400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>306000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>328100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>320800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>346400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>340300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>339000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>263000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>282900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>163900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>151200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>175000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>172100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>155900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>130500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>133800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>456300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>456000</v>
+      </c>
+      <c r="F72" s="3">
         <v>476800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>461800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>440300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>424200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>413600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>388000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>361200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>346400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>341600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>313700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>298900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>305500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>455500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>456600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>443400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>430500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>431200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>418300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>396000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>391500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>388700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>425600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>411300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>408800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>415900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>413700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>492000</v>
+      </c>
+      <c r="F76" s="3">
         <v>507600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>478000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>470800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>459700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>472800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>454300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>434600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>426800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>425300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>389300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>373700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>369800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>526500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>520700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>500300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>489600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>496700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>481000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>463400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>460900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>470300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>487400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>478200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>464500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>474000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>470100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F81" s="3">
         <v>22700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>29300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>24000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>18500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>19400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>30300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>14800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-150000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>17800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>17500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>17400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>26900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>9100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>8100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-33900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>17400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>5500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>5200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
         <v>2600</v>
       </c>
       <c r="F83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3100</v>
       </c>
       <c r="J83" s="3">
         <v>3100</v>
       </c>
       <c r="K83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>4000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>4100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>3900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>4300</v>
-      </c>
-      <c r="U83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>3100</v>
       </c>
       <c r="W83" s="3">
         <v>3400</v>
       </c>
       <c r="X83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Z83" s="3">
         <v>3600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>3800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>3100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>2900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>3000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F89" s="3">
         <v>78000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-20800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>92100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>38100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-15400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>75100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-25600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>76600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-25600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>59300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>22700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>6800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>64200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>6500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-16600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>69100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6833,82 +7274,88 @@
         <v>-2400</v>
       </c>
       <c r="E91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>2000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-7600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-96100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-80000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,41 +7652,43 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-7800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-7900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-7900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-5700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-4600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-4700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-7000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7229,10 +7696,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-4600</v>
@@ -7253,10 +7720,10 @@
         <v>-4600</v>
       </c>
       <c r="X96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="Y96" s="3">
-        <v>-3000</v>
+        <v>-4600</v>
       </c>
       <c r="Z96" s="3">
         <v>-3000</v>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-13400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-14100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-22900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-12600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-10200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-19800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-16800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-11000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-37200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>30500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-8700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>43800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-3800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-27700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-10900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>4200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-5700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>5800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>5900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="F102" s="3">
         <v>65000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-16500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-22100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-51900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>75300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>12800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-36900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>60600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-17600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>69900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-18900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-15800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-39200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>47200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-32900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-37900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>59300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-71200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-22700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>56500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-6000</v>
       </c>
     </row>
